--- a/File_list_v1.0.xlsx
+++ b/File_list_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ba185c03ae64d0e/ProjetOCTAV/Hardware X/OCTAVie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\My_GitHub\OCTAVie_FPGA_release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{A01091A3-DA14-42E5-A43E-4F36FEF3D6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F68ADA3-0BD4-48AD-8107-ED05E33081D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400C47CE-75B5-4A4D-8EE9-C0814D09241E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11025" yWindow="0" windowWidth="17880" windowHeight="15585" xr2:uid="{B35D71AA-7AB6-4D3F-AF9B-4C30940FFE61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35D71AA-7AB6-4D3F-AF9B-4C30940FFE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
   <si>
     <t>Design file name</t>
   </si>
@@ -80,9 +80,6 @@
     <t>JLCPCB_PCBA_Order_Tutorial_v1.0_EN</t>
   </si>
   <si>
-    <t>microphone build to be here</t>
-  </si>
-  <si>
     <t>OCTAVie\2.hardware\1.microphone\v1.0\1.electronics\1.pcb_design</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>OCTAVie\2.hardware\1.microphone\v1.0\3.assembly</t>
   </si>
   <si>
-    <t>Microphone build to be here</t>
-  </si>
-  <si>
     <t>OCTAVie\2.hardware\1.microphone\v1.0\4.bom</t>
   </si>
   <si>
@@ -429,6 +423,9 @@
   </si>
   <si>
     <t>Mouseur_FPGA_Dk</t>
+  </si>
+  <si>
+    <t>Microphone_tutorial_assembly_v1.0_EN</t>
   </si>
 </sst>
 </file>
@@ -530,20 +527,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -884,19 +878,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F084B7-AD3F-4CBA-8D3D-25EB3DBE81A0}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,29 +904,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -946,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -988,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1002,359 +1002,359 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="7" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -1363,12 +1363,12 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -1377,52 +1377,52 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>11</v>
       </c>
@@ -1433,136 +1433,136 @@
         <v>9</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="C42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="B43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="C43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="C44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="C45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="C46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="C47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -1573,491 +1573,491 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="8" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="8" t="s">
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="C62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="B65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="C66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="C67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="C68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B70" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="6" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="C71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="13" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="B77" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="B81" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="B82" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="B83" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="B84" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/File_list_v1.0.xlsx
+++ b/File_list_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\My_GitHub\OCTAVie_FPGA_release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400C47CE-75B5-4A4D-8EE9-C0814D09241E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1A7BB-23EA-4E7D-A699-5297CD3CD992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35D71AA-7AB6-4D3F-AF9B-4C30940FFE61}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35D71AA-7AB6-4D3F-AF9B-4C30940FFE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="136">
   <si>
     <t>Design file name</t>
   </si>
@@ -275,12 +275,6 @@
     <t>OCTAVie\3.firmware_fpga\3.docs</t>
   </si>
   <si>
-    <t>Pinout FPGA</t>
-  </si>
-  <si>
-    <t>Achitecture</t>
-  </si>
-  <si>
     <t>OCTAVie\4.software_pc\1.sources</t>
   </si>
   <si>
@@ -320,18 +314,6 @@
     <t>OCTAVie\4.software_pc\3.docs</t>
   </si>
   <si>
-    <t>Architecture_schematics</t>
-  </si>
-  <si>
-    <t>How to intall gtk windows</t>
-  </si>
-  <si>
-    <t>How to compile and run</t>
-  </si>
-  <si>
-    <t>FFT_data</t>
-  </si>
-  <si>
     <t>OCTAVie\5.data</t>
   </si>
   <si>
@@ -344,15 +326,6 @@
     <t>OCTAVie\6.tests</t>
   </si>
   <si>
-    <t>Data_d'un vrai enregistrement</t>
-  </si>
-  <si>
-    <t>How to test the microhpne</t>
-  </si>
-  <si>
-    <t>how to test the acquisition unit</t>
-  </si>
-  <si>
     <t>How to test the full system</t>
   </si>
   <si>
@@ -426,6 +399,51 @@
   </si>
   <si>
     <t>Microphone_tutorial_assembly_v1.0_EN</t>
+  </si>
+  <si>
+    <t>document (pdf, docx)</t>
+  </si>
+  <si>
+    <t>document (pdf,docx)</t>
+  </si>
+  <si>
+    <t>FPGA_Architecture_shematics_v1.0_EN</t>
+  </si>
+  <si>
+    <t>FPGA_Pinout_v1.0_EN</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>up to date</t>
+  </si>
+  <si>
+    <t>to be completed</t>
+  </si>
+  <si>
+    <t>Software_Architecture_v1.0_EN</t>
+  </si>
+  <si>
+    <t>Install_Dependances_Linux_v1.0_EN</t>
+  </si>
+  <si>
+    <t>Install_Dependances_Windows_v1.0_EN</t>
+  </si>
+  <si>
+    <t>FFT_data_example_format_v1.0_EN</t>
+  </si>
+  <si>
+    <t>Real_Animal_recording_250502ApC_v1.0_EN</t>
+  </si>
+  <si>
+    <t>Microphone_Protocol_Test_v1.0_EN</t>
+  </si>
+  <si>
+    <t>Aquisition_Unit_Protocol_Test_v1.0_EN</t>
+  </si>
+  <si>
+    <t>document (csv) into zip</t>
   </si>
 </sst>
 </file>
@@ -476,18 +494,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -523,25 +541,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F084B7-AD3F-4CBA-8D3D-25EB3DBE81A0}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,9 +916,10 @@
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,41 +932,50 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="E1" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -945,13 +983,16 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -959,13 +1000,16 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -973,13 +1017,16 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -987,13 +1034,16 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1001,358 +1051,436 @@
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="E9" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="E10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="E12" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="E13" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="E21" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="E22" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="E23" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="E24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="E25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="E26" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="E27" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="E28" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="E29" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="E30" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="E31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="E32" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -1365,8 +1493,11 @@
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
@@ -1379,195 +1510,237 @@
       <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="E35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="E36" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="E37" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="E38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="E47" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -1575,489 +1748,597 @@
       <c r="D49" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="E52" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="B54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="C56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="D57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="D58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="D59" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="D60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="E76" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="B83" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>121</v>
+      <c r="C84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/File_list_v1.0.xlsx
+++ b/File_list_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\My_GitHub\OCTAVie_FPGA_release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1A7BB-23EA-4E7D-A699-5297CD3CD992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E301A6E-91A7-4D0F-B7D8-6E3C42692B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35D71AA-7AB6-4D3F-AF9B-4C30940FFE61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="135">
   <si>
     <t>Design file name</t>
   </si>
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t>FPGA_Architecture_shematics_v1.0_EN</t>
-  </si>
-  <si>
-    <t>FPGA_Pinout_v1.0_EN</t>
   </si>
   <si>
     <t>Status</t>
@@ -904,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F084B7-AD3F-4CBA-8D3D-25EB3DBE81A0}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,7 +947,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1052,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1069,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1086,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1103,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,7 +1134,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1154,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,7 +1168,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,7 +1202,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,7 +1219,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1236,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,7 +1253,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,7 +1270,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,7 +1287,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,7 +1304,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,7 +1338,7 @@
         <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1355,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,7 +1372,7 @@
         <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,7 +1389,7 @@
         <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,7 +1406,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,7 +1423,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1440,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1460,7 +1457,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,7 +1474,7 @@
         <v>54</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1494,7 +1491,7 @@
         <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,7 +1508,7 @@
         <v>59</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,7 +1525,7 @@
         <v>62</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,7 +1542,7 @@
         <v>62</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,7 +1559,7 @@
         <v>62</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,7 +1576,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1596,7 +1593,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1613,7 +1610,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1630,7 +1627,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,7 +1644,7 @@
         <v>64</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,7 +1661,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,7 +1678,7 @@
         <v>64</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,7 +1695,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,7 +1712,7 @@
         <v>64</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,7 +1729,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,41 +1746,41 @@
         <v>78</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>127</v>
+      <c r="E50" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>127</v>
+      <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,7 +1788,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>65</v>
@@ -1800,15 +1797,15 @@
         <v>79</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>65</v>
@@ -1817,7 +1814,7 @@
         <v>79</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,7 +1822,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>65</v>
@@ -1834,15 +1831,15 @@
         <v>79</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>65</v>
@@ -1851,15 +1848,15 @@
         <v>79</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>65</v>
@@ -1868,15 +1865,15 @@
         <v>79</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
@@ -1885,24 +1882,24 @@
         <v>79</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="A58" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>79</v>
+      <c r="D58" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,7 +1907,7 @@
         <v>94</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>65</v>
@@ -1919,29 +1916,29 @@
         <v>88</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="A60" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>121</v>
@@ -1953,12 +1950,12 @@
         <v>91</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>121</v>
@@ -1970,24 +1967,24 @@
         <v>91</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>127</v>
+      <c r="A63" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,7 +1992,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>9</v>
@@ -2004,23 +2001,23 @@
         <v>92</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="B65" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2038,12 +2035,12 @@
         <v>95</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>121</v>
@@ -2055,29 +2052,29 @@
         <v>95</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>127</v>
+      <c r="A68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>99</v>
@@ -2086,49 +2083,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>101</v>
+      <c r="C70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>30</v>
@@ -2140,12 +2137,12 @@
         <v>104</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>30</v>
@@ -2157,12 +2154,12 @@
         <v>104</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>30</v>
@@ -2174,46 +2171,44 @@
         <v>104</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>104</v>
+      <c r="A75" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>105</v>
+      <c r="A76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>110</v>
@@ -2223,12 +2218,12 @@
         <v>106</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>110</v>
@@ -2238,30 +2233,32 @@
         <v>106</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
-        <v>106</v>
+      <c r="A79" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>9</v>
@@ -2270,12 +2267,12 @@
         <v>112</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>118</v>
@@ -2287,12 +2284,12 @@
         <v>112</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>118</v>
@@ -2304,15 +2301,15 @@
         <v>112</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>9</v>
@@ -2321,24 +2318,7 @@
         <v>112</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/File_list_v1.0.xlsx
+++ b/File_list_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\My_GitHub\OCTAVie_FPGA_release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E301A6E-91A7-4D0F-B7D8-6E3C42692B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD982C-A172-47DF-9BD6-2B05B6EEE4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35D71AA-7AB6-4D3F-AF9B-4C30940FFE61}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B35D71AA-7AB6-4D3F-AF9B-4C30940FFE61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="136">
   <si>
     <t>Design file name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>OCTAVie\1.docs\2.build_guide</t>
   </si>
   <si>
-    <t>FPGA_AnalogBoard_Enclosure_Assembly</t>
-  </si>
-  <si>
     <t>FPGA_Programming_Tutorial_v1.0_EN</t>
   </si>
   <si>
@@ -441,6 +438,12 @@
   </si>
   <si>
     <t>document (csv) into zip</t>
+  </si>
+  <si>
+    <t>FPGA_AnalogBoard_Enclosure_Assembly_v1.0_EN</t>
+  </si>
+  <si>
+    <t>User Guide for OCTAVie System_v1.0_EN</t>
   </si>
 </sst>
 </file>
@@ -903,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F084B7-AD3F-4CBA-8D3D-25EB3DBE81A0}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,1395 +933,1395 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>126</v>
+      <c r="A61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E79" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
